--- a/画面設計/【画面設計】16_レシピ登録更新.xlsx
+++ b/画面設計/【画面設計】16_レシピ登録更新.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="139">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -360,7 +360,19 @@
     <t>更新モード時はレシピ、レシピアレルギーに更新すること。</t>
   </si>
   <si>
-    <t>上記の情報で、レシピ、レシピアレルギーへ更新する。</t>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>上記の情報で、レシピへ更新する。</t>
+  </si>
+  <si>
+    <t>レシピアレルギー</t>
+  </si>
+  <si>
+    <t>上記の情報で、レシピアレルギーへ更新する。</t>
   </si>
   <si>
     <t>1. 処理一覧</t>
@@ -442,7 +454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -528,17 +540,22 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="9.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -951,26 +968,26 @@
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -978,13 +995,13 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -993,52 +1010,52 @@
     <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1056,10 +1073,10 @@
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1068,43 +1085,43 @@
     <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="10" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="10" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="11" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="11" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="12" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="11" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="11" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2878,7 +2895,7 @@
     <col customWidth="1" min="8" max="8" width="43.57"/>
     <col customWidth="1" min="9" max="9" width="16.29"/>
     <col customWidth="1" min="10" max="10" width="18.57"/>
-    <col customWidth="1" min="11" max="11" width="48.86"/>
+    <col customWidth="1" min="11" max="11" width="52.29"/>
     <col customWidth="1" min="12" max="13" width="9.0"/>
     <col customWidth="1" min="14" max="26" width="8.71"/>
   </cols>
@@ -5380,13 +5397,13 @@
       <c r="H80" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I80" s="65" t="s">
+      <c r="I80" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J80" s="65" t="s">
+      <c r="J80" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K80" s="66"/>
+      <c r="K80" s="47"/>
       <c r="L80" s="57"/>
       <c r="M80" s="57"/>
       <c r="N80" s="57"/>
@@ -5524,13 +5541,13 @@
       <c r="H84" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I84" s="65" t="s">
+      <c r="I84" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J84" s="65" t="s">
+      <c r="J84" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K84" s="66"/>
+      <c r="K84" s="47"/>
       <c r="L84" s="57"/>
       <c r="M84" s="57"/>
       <c r="N84" s="57"/>
@@ -5665,16 +5682,16 @@
       <c r="G88" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H88" s="67" t="s">
+      <c r="H88" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="I88" s="65" t="s">
+      <c r="I88" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J88" s="65" t="s">
+      <c r="J88" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K88" s="66"/>
+      <c r="K88" s="47"/>
       <c r="L88" s="57"/>
       <c r="M88" s="57"/>
       <c r="N88" s="57"/>
@@ -5776,13 +5793,13 @@
       </c>
       <c r="E91" s="57"/>
       <c r="F91" s="59"/>
-      <c r="G91" s="68" t="s">
+      <c r="G91" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="H91" s="69"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="71" t="s">
+      <c r="H91" s="67"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="69" t="s">
         <v>107</v>
       </c>
       <c r="L91" s="57"/>
@@ -5814,14 +5831,18 @@
       </c>
       <c r="E92" s="57"/>
       <c r="F92" s="59"/>
-      <c r="G92" s="68" t="s">
-        <v>106</v>
+      <c r="G92" s="69" t="s">
+        <v>45</v>
       </c>
-      <c r="H92" s="69"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="71" t="s">
+      <c r="H92" s="70" t="s">
         <v>110</v>
+      </c>
+      <c r="I92" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="J92" s="71"/>
+      <c r="K92" s="69" t="s">
+        <v>112</v>
       </c>
       <c r="L92" s="57"/>
       <c r="M92" s="57"/>
@@ -5846,11 +5867,15 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+      <c r="G93" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H93" s="67"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="69" t="s">
+        <v>114</v>
+      </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -31055,7 +31080,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="73"/>
       <c r="B4" s="73" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -52699,10 +52724,10 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="83" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
@@ -52733,17 +52758,17 @@
     <row r="6">
       <c r="B6" s="87"/>
       <c r="C6" s="83" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="20"/>
       <c r="F6" s="88"/>
       <c r="H6" s="87"/>
       <c r="I6" s="83" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J6" s="91" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="83"/>
@@ -52761,21 +52786,21 @@
     <row r="8">
       <c r="B8" s="87"/>
       <c r="C8" s="83" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8" s="93" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="94" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F8" s="88"/>
       <c r="H8" s="87"/>
       <c r="I8" s="83" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L8" s="93" t="s">
         <v>53</v>
@@ -52785,7 +52810,7 @@
     <row r="9" ht="21.0" customHeight="1">
       <c r="B9" s="87"/>
       <c r="E9" s="94" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F9" s="88"/>
       <c r="H9" s="87"/>
@@ -52841,10 +52866,10 @@
         <v>57</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E16" s="95" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F16" s="96"/>
       <c r="G16" s="97"/>
@@ -52853,10 +52878,10 @@
         <v>57</v>
       </c>
       <c r="J16" s="99" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K16" s="95" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L16" s="83"/>
       <c r="M16" s="89"/>
@@ -52881,10 +52906,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="99" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E18" s="95" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F18" s="96"/>
       <c r="G18" s="97"/>
@@ -52893,10 +52918,10 @@
         <v>63</v>
       </c>
       <c r="J18" s="99" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K18" s="95" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="89"/>
@@ -52921,10 +52946,10 @@
         <v>66</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E20" s="95" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F20" s="96"/>
       <c r="G20" s="97"/>
@@ -52933,10 +52958,10 @@
         <v>66</v>
       </c>
       <c r="J20" s="99" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K20" s="95" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L20" s="83"/>
       <c r="M20" s="89"/>
@@ -52956,7 +52981,7 @@
       </c>
       <c r="D22" s="100"/>
       <c r="E22" s="83" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="88"/>
       <c r="H22" s="87"/>
@@ -52965,7 +52990,7 @@
       </c>
       <c r="J22" s="100"/>
       <c r="K22" s="83" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="89"/>
@@ -52984,10 +53009,10 @@
         <v>74</v>
       </c>
       <c r="D24" s="101" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E24" s="83" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F24" s="88"/>
       <c r="H24" s="87"/>
@@ -52995,10 +53020,10 @@
         <v>74</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K24" s="83" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L24" s="83"/>
       <c r="M24" s="89"/>
@@ -53017,10 +53042,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="101" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E26" s="102" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F26" s="96"/>
       <c r="H26" s="87"/>
@@ -53028,10 +53053,10 @@
         <v>76</v>
       </c>
       <c r="J26" s="101" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K26" s="102" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L26" s="102"/>
       <c r="M26" s="103"/>
@@ -53050,7 +53075,7 @@
         <v>79</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F28" s="88"/>
       <c r="H28" s="87"/>
@@ -53058,55 +53083,55 @@
         <v>79</v>
       </c>
       <c r="J28" s="95" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M28" s="88"/>
     </row>
     <row r="29">
       <c r="B29" s="87"/>
       <c r="D29" s="97" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F29" s="88"/>
       <c r="H29" s="87"/>
       <c r="J29" s="97" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M29" s="88"/>
     </row>
     <row r="30">
       <c r="B30" s="87"/>
       <c r="D30" s="97" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F30" s="88"/>
       <c r="H30" s="87"/>
       <c r="J30" s="97" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M30" s="88"/>
     </row>
     <row r="31">
       <c r="B31" s="87"/>
       <c r="D31" s="97" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F31" s="88"/>
       <c r="H31" s="87"/>
       <c r="J31" s="97" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M31" s="88"/>
     </row>
     <row r="32">
       <c r="B32" s="87"/>
       <c r="D32" s="97" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F32" s="88"/>
       <c r="H32" s="87"/>
       <c r="J32" s="97" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M32" s="88"/>
     </row>
@@ -53118,14 +53143,14 @@
     </row>
     <row r="34">
       <c r="B34" s="104" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
       <c r="H34" s="105" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I34" s="106"/>
       <c r="J34" s="106"/>
@@ -53142,18 +53167,18 @@
     <row r="36">
       <c r="B36" s="87"/>
       <c r="C36" s="101" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F36" s="88"/>
       <c r="H36" s="87"/>
       <c r="I36" s="101" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J36" s="83" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M36" s="88"/>
     </row>
@@ -53227,14 +53252,14 @@
     </row>
     <row r="44">
       <c r="B44" s="109" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
       <c r="H44" s="109" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
@@ -53312,14 +53337,14 @@
     </row>
     <row r="52">
       <c r="B52" s="110" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
       <c r="H52" s="110" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
@@ -53398,12 +53423,12 @@
     <row r="60">
       <c r="B60" s="87"/>
       <c r="D60" s="111" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F60" s="88"/>
       <c r="H60" s="87"/>
       <c r="J60" s="112" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M60" s="88"/>
     </row>
